--- a/biology/Botanique/Lotus_ornithopodioides/Lotus_ornithopodioides.xlsx
+++ b/biology/Botanique/Lotus_ornithopodioides/Lotus_ornithopodioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lotus ornithopodioides, le Lotier faux pied-d'oiseau ou Lotier pied-d'oiseau, est une espèce de plantes herbacées méditerranéennes de la famille des Fabaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lotus ornithopodioides est une plante annuelle de 10-40 cm. Les feuilles et la tige sont pubescentes. Les fleurs sont jaunes, assez petites, groupées par 2 à 5 sur des pédoncules. Les gousses brunes sont bosselées et longues de 30-50 mm.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lieux sablonneux et herbeux circum-méditerranéens.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Région méditerranéenne: sud de l'Europe, Afrique du nord.
 France: Alpes-Maritimes, Var, Bouches-du-Rhône, Corse.
